--- a/effect_sizes_and_moderators.xlsx
+++ b/effect_sizes_and_moderators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885B8C9-9D49-5A48-B441-9182B8A3D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45FF32-8A23-1B42-81D0-5AACF863BD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/effect_sizes_and_moderators.xlsx
+++ b/effect_sizes_and_moderators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45FF32-8A23-1B42-81D0-5AACF863BD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F92D7-6C95-2948-B5FA-BA47739095DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t xml:space="preserve">Social Support </t>
+  </si>
+  <si>
+    <t>age group</t>
+  </si>
+  <si>
+    <t>e.g: 0.3</t>
+  </si>
+  <si>
+    <t>female proportion</t>
+  </si>
+  <si>
+    <t>age range</t>
+  </si>
+  <si>
+    <t>e.g. 18-49</t>
   </si>
 </sst>
 </file>
@@ -610,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -625,12 +640,13 @@
     <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,8 +680,17 @@
       <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -700,8 +725,14 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -737,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -773,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -809,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -844,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -879,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -914,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -950,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -985,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/effect_sizes_and_moderators.xlsx
+++ b/effect_sizes_and_moderators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F92D7-6C95-2948-B5FA-BA47739095DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7269185-D3C3-D046-9309-C092E1FC147B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -294,13 +294,16 @@
     <t>e.g: 0.3</t>
   </si>
   <si>
-    <t>female proportion</t>
-  </si>
-  <si>
-    <t>age range</t>
-  </si>
-  <si>
     <t>e.g. 18-49</t>
+  </si>
+  <si>
+    <t>female proportion(Marg)</t>
+  </si>
+  <si>
+    <t>age range (Marg)</t>
+  </si>
+  <si>
+    <t>study design (Q)</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -643,10 +646,12 @@
     <col min="9" max="9" width="7.83203125" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,16 +686,19 @@
         <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -729,10 +737,10 @@
         <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -768,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -804,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -840,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -875,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -910,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -945,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -981,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/effect_sizes_and_moderators.xlsx
+++ b/effect_sizes_and_moderators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54862DE9-FA57-7747-B184-305F78D95666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E43019-2231-C84F-995A-7F6240CAFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34200" yWindow="-1120" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -73,24 +73,12 @@
     <t>female proportion(Marg)</t>
   </si>
   <si>
-    <t>age range (Marg)</t>
-  </si>
-  <si>
-    <t>age group</t>
-  </si>
-  <si>
-    <t>study design (Q)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adjorlolo et al. (2022) </t>
   </si>
   <si>
     <t>PTGI-SF</t>
   </si>
   <si>
-    <t>e.g. 18-49</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arnout and Al‐Sufyani (2021) </t>
   </si>
   <si>
@@ -247,22 +235,13 @@
     <t xml:space="preserve">Read et al. (2022) </t>
   </si>
   <si>
-    <t>0.51, 0.68</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarialioglu et al. (2022) </t>
   </si>
   <si>
-    <t>0.881, 0.868</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uziel et al. (2021) </t>
   </si>
   <si>
     <t xml:space="preserve">Veronese et al. (2022) </t>
-  </si>
-  <si>
-    <t>0.488, 0.5, 0.519</t>
   </si>
   <si>
     <t>Wu (2024)</t>
@@ -332,11 +311,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,14 +361,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -718,11 +703,9 @@
     <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,22 +742,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2">
         <v>22.257999999999999</v>
@@ -807,16 +781,13 @@
       <c r="L2" s="1">
         <v>0.40699999999999997</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>65.194999999999993</v>
@@ -850,12 +821,12 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>55.78</v>
@@ -889,12 +860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f>ROUND(38.09*10.7/100+73.78*20.1/100+57.91*42.2/100+79.47*27/100,2)</f>
@@ -928,12 +899,12 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -966,12 +937,12 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>45.57</v>
@@ -1004,12 +975,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>47.73</v>
@@ -1042,12 +1013,12 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>53.13</v>
@@ -1081,12 +1052,12 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>12.64</v>
@@ -1119,12 +1090,12 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>78.400000000000006</v>
@@ -1157,12 +1128,12 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>96.26</v>
@@ -1195,12 +1166,12 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>47</v>
@@ -1233,12 +1204,12 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>21.6</v>
@@ -1268,15 +1239,15 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>36.51</v>
@@ -1309,12 +1280,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>47.95</v>
@@ -1349,10 +1320,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>21.9</v>
@@ -1382,15 +1353,15 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>63.49</v>
@@ -1425,10 +1396,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>67.17</v>
@@ -1463,10 +1434,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>58.34</v>
@@ -1501,10 +1472,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>71.75</v>
@@ -1539,10 +1510,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>30.33</v>
@@ -1577,10 +1548,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>64.81</v>
@@ -1615,10 +1586,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>46.81</v>
@@ -1653,10 +1624,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>63.36</v>
@@ -1691,10 +1662,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>31.82</v>
@@ -1729,10 +1700,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>20.350000000000001</v>
@@ -1767,10 +1738,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>51.44</v>
@@ -1805,10 +1776,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>62.83</v>
@@ -1843,10 +1814,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <f>ROUND((53.97*253+45.56*176)/(253+176),2)</f>
@@ -1883,10 +1854,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>75.47</v>
@@ -1921,10 +1892,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>70.91</v>
@@ -1959,10 +1930,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>69.95</v>
@@ -1997,10 +1968,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>40</v>
@@ -2036,10 +2007,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>73.92 /25 * 21</f>
@@ -2076,10 +2047,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>43.05</v>
@@ -2114,10 +2085,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
         <v>34.51</v>
@@ -2152,10 +2123,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <f>3.01 * 21</f>
@@ -2191,10 +2162,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1">
         <f>2.3 * 10</f>
@@ -2231,10 +2202,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <f>3.62 *10</f>
@@ -2271,10 +2242,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1">
         <v>62.24</v>
@@ -2309,10 +2280,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>47.4</v>
@@ -2347,10 +2318,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1">
         <f>2.169 * 21</f>
@@ -2381,16 +2352,16 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>31</v>
+      <c r="L43" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1">
         <f>45.4545</f>
@@ -2426,10 +2397,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>37.085999999999999</v>
@@ -2464,10 +2435,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <f>4.11 * 10</f>
@@ -2504,10 +2475,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <f>3.98 * 21</f>
@@ -2544,10 +2515,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <f>2.74 * 21</f>
@@ -2584,10 +2555,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>58.09</v>
@@ -2622,10 +2593,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <f>3.25 * 21</f>
@@ -2662,10 +2633,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <f>2.4 * 21</f>
@@ -2702,10 +2673,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1">
         <v>67.489999999999995</v>
@@ -2735,16 +2706,16 @@
       <c r="K52" s="1">
         <v>0</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>70</v>
+      <c r="L52" s="1">
+        <v>0.68</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>50.98</v>
@@ -2773,16 +2744,16 @@
       <c r="K53" s="1">
         <v>0</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>72</v>
+      <c r="L53" s="1">
+        <v>0.88</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1">
         <v>17.829999999999998</v>
@@ -2817,10 +2788,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <f>3.62 * 10</f>
@@ -2851,16 +2822,16 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>75</v>
+      <c r="L55" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1">
         <f>4.2*21</f>
@@ -2897,10 +2868,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>37.86</v>
@@ -2935,10 +2906,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1">
         <f>43.8 /16 *21</f>
@@ -2975,10 +2946,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <f>76.74 / 25 *21</f>
@@ -3015,10 +2986,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1">
         <v>25.19</v>
@@ -3048,15 +3019,15 @@
         <v>0</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
         <f>2.6*21</f>
@@ -3092,10 +3063,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1">
         <v>61.03</v>
@@ -3130,10 +3101,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1">
         <v>46.6</v>
@@ -3168,10 +3139,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
         <f>3.18*21</f>
@@ -3207,10 +3178,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
         <f>2.24*21</f>
@@ -3246,10 +3217,10 @@
     </row>
     <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2">
         <v>37.1</v>
@@ -3284,10 +3255,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1">
         <v>97.09</v>
@@ -3322,10 +3293,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <f>3.65*21</f>
@@ -3361,10 +3332,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>76.180000000000007</v>
@@ -3399,10 +3370,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>21.6</v>
@@ -3437,10 +3408,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>65.650000000000006</v>
@@ -3475,10 +3446,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>70.53</v>
@@ -3512,11 +3483,11 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>93</v>
+      <c r="A73" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C73">
         <v>52.89</v>
@@ -3545,14 +3516,16 @@
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <f>27.5 / 10 * 21</f>
@@ -3583,13 +3556,16 @@
       <c r="K74">
         <v>0</v>
       </c>
+      <c r="L74">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>63.28</v>
@@ -3618,13 +3594,22 @@
       <c r="K75">
         <v>0</v>
       </c>
+      <c r="L75">
+        <v>0.65800000000000003</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>37.18</v>
+      </c>
+      <c r="D76">
+        <v>24.18</v>
       </c>
       <c r="E76">
         <v>1206</v>
@@ -3646,6 +3631,9 @@
       </c>
       <c r="K76">
         <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0.77900000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/effect_sizes_and_moderators.xlsx
+++ b/effect_sizes_and_moderators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qduan/Documents/GitHub/ptg-covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E43019-2231-C84F-995A-7F6240CAFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9E183-53B7-664F-9F77-633F7882795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="-1120" windowWidth="19200" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40620" yWindow="300" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:N21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B76" t="s">
